--- a/Btu_in_vitro_growthData_30_24_Lindsay.xlsx
+++ b/Btu_in_vitro_growthData_30_24_Lindsay.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate_Lab_Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F84DD-E74E-4251-9A2A-8B36BAA9F0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849B428-052D-4638-AF9F-E9264E6A0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{C583E888-4746-47C2-9E5D-A4168F087327}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{C583E888-4746-47C2-9E5D-A4168F087327}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Btu</t>
   </si>
@@ -79,6 +80,18 @@
   </si>
   <si>
     <t>avg tmid</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Sadiq</t>
   </si>
 </sst>
 </file>
@@ -433,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB47CF-0E10-41B5-A9E9-ABE2E7A9A106}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -832,4 +845,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A2EC93-FE96-4EEA-9BC6-0973A9C73670}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0.51839013333333328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.62909686666666664</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>